--- a/要件/テーブル定義書.xlsx
+++ b/要件/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\OneDrive - Mahala.Ms\htdocs\portfolio\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D150BEE-6222-4E3F-B655-EE05F3EC0926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DBFAA2-D185-4C05-B623-3EF7469C0FCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1326" windowWidth="14400" windowHeight="12762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11178" yWindow="294" windowWidth="11634" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usersテーブル" sheetId="6" r:id="rId1"/>
@@ -410,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{CD1E0AF4-2D97-4FDA-978B-4754E6E8AAE0}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{CD1E0AF4-2D97-4FDA-978B-4754E6E8AAE0}">
       <text>
         <r>
           <rPr>
@@ -447,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{B053E661-C136-4678-A407-439C72DA5F78}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{B053E661-C136-4678-A407-439C72DA5F78}">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{22543495-B474-451C-9B97-4B61189091A4}">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{22543495-B474-451C-9B97-4B61189091A4}">
       <text>
         <r>
           <rPr>
@@ -556,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{694FCE77-237C-4157-9AF6-84AD94C8F6E5}">
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{694FCE77-237C-4157-9AF6-84AD94C8F6E5}">
       <text>
         <r>
           <rPr>
@@ -627,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{B51C9FF5-860A-465B-B858-408ACB193B5A}">
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{B51C9FF5-860A-465B-B858-408ACB193B5A}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{0A1E030A-5F29-4942-B06D-2C62E9D548BF}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{0A1E030A-5F29-4942-B06D-2C62E9D548BF}">
       <text>
         <r>
           <rPr>
@@ -1069,7 +1069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{1CC85DD6-01BE-4F12-9C69-44D7B6C9C7E5}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{1CC85DD6-01BE-4F12-9C69-44D7B6C9C7E5}">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{DA53C518-D096-49C5-AF1F-343FB5452D83}">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{DA53C518-D096-49C5-AF1F-343FB5452D83}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{1E410F4D-4EA1-411D-BEE9-10A175A1B546}">
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{1E410F4D-4EA1-411D-BEE9-10A175A1B546}">
       <text>
         <r>
           <rPr>
@@ -1249,7 +1249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{571096B2-3D80-453F-A395-A01F13D92ADD}">
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{571096B2-3D80-453F-A395-A01F13D92ADD}">
       <text>
         <r>
           <rPr>
@@ -1891,7 +1891,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -2199,10 +2199,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -2228,13 +2224,6 @@
   </si>
   <si>
     <t>timestamp</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -2274,6 +2263,45 @@
   </si>
   <si>
     <t>tinyint(11)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>mail_address</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>投稿数</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウスウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>posted</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2996,7 +3024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3124,6 +3152,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3505,10 +3536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15" customHeight="1"/>
@@ -3556,17 +3587,17 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="45"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="41"/>
@@ -3592,15 +3623,15 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
@@ -3626,17 +3657,17 @@
       <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
@@ -3662,17 +3693,17 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
@@ -3698,17 +3729,17 @@
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
@@ -3731,14 +3762,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="41"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
@@ -3761,12 +3792,12 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="41"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
@@ -3789,12 +3820,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="41"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
@@ -3817,12 +3848,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="41"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
@@ -4022,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>83</v>
@@ -4033,38 +4064,38 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
     </row>
     <row r="17" spans="1:26" ht="11.25" customHeight="1">
       <c r="A17" s="16">
         <v>4</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
@@ -4093,9 +4124,15 @@
       <c r="A18" s="16">
         <v>5</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
@@ -4123,9 +4160,15 @@
       <c r="A19" s="16">
         <v>6</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
@@ -4239,16 +4282,16 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
     </row>
-    <row r="23" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A23" s="20">
+    <row r="23" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A23" s="16">
         <v>10</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
@@ -4269,14 +4312,16 @@
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
     </row>
-    <row r="24" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+    <row r="24" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A24" s="20">
+        <v>11</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
@@ -4297,10 +4342,8 @@
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
     </row>
-    <row r="25" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="25" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A25" s="41"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -4328,25 +4371,15 @@
       <c r="Z25" s="41"/>
     </row>
     <row r="26" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A26" s="24" t="s">
-        <v>1</v>
+      <c r="A26" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
@@ -4367,24 +4400,26 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
     </row>
-    <row r="27" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A27" s="27">
+    <row r="27" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A27" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>22</v>
+      <c r="B27" s="25" t="s">
+        <v>18</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>23</v>
+      <c r="C27" s="50" t="s">
+        <v>19</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="28" t="s">
-        <v>34</v>
+      <c r="D27" s="51"/>
+      <c r="E27" s="25" t="s">
+        <v>20</v>
       </c>
-      <c r="F27" s="28" t="s">
-        <v>34</v>
+      <c r="F27" s="25" t="s">
+        <v>21</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
@@ -4405,24 +4440,24 @@
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
     </row>
-    <row r="28" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A28" s="30">
-        <v>2</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="34" t="s">
+    <row r="28" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="F28" s="34" t="s">
-        <v>1</v>
+      <c r="B28" s="28" t="s">
+        <v>22</v>
       </c>
-      <c r="G28" s="35"/>
+      <c r="C28" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="29"/>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
@@ -4443,14 +4478,24 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
     </row>
-    <row r="29" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+    <row r="29" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A29" s="30">
+        <v>2</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="35"/>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
@@ -31659,11 +31704,39 @@
       <c r="Y1000" s="41"/>
       <c r="Z1000" s="41"/>
     </row>
+    <row r="1001" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A1001" s="41"/>
+      <c r="B1001" s="41"/>
+      <c r="C1001" s="41"/>
+      <c r="D1001" s="41"/>
+      <c r="E1001" s="41"/>
+      <c r="F1001" s="41"/>
+      <c r="G1001" s="41"/>
+      <c r="H1001" s="41"/>
+      <c r="I1001" s="41"/>
+      <c r="J1001" s="41"/>
+      <c r="K1001" s="41"/>
+      <c r="L1001" s="41"/>
+      <c r="M1001" s="41"/>
+      <c r="N1001" s="41"/>
+      <c r="O1001" s="41"/>
+      <c r="P1001" s="41"/>
+      <c r="Q1001" s="41"/>
+      <c r="R1001" s="41"/>
+      <c r="S1001" s="41"/>
+      <c r="T1001" s="41"/>
+      <c r="U1001" s="41"/>
+      <c r="V1001" s="41"/>
+      <c r="W1001" s="41"/>
+      <c r="X1001" s="41"/>
+      <c r="Y1001" s="41"/>
+      <c r="Z1001" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
@@ -31693,10 +31766,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15" customHeight="1"/>
@@ -31744,17 +31817,17 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="45"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -31780,15 +31853,15 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -31814,17 +31887,17 @@
       <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -31850,17 +31923,17 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -31886,17 +31959,17 @@
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -31919,14 +31992,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="41"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -31949,14 +32022,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="41"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -31979,12 +32052,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="41"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -32007,12 +32080,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="41"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -32144,7 +32217,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -32176,13 +32249,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
@@ -32207,7 +32280,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="11.25" customHeight="1">
+    <row r="16" spans="1:26" s="42" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="16">
         <v>3</v>
       </c>
@@ -32215,46 +32288,46 @@
         <v>70</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
     </row>
     <row r="17" spans="1:26" ht="11.25" customHeight="1">
       <c r="A17" s="16">
         <v>4</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
@@ -32284,13 +32357,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
@@ -32320,13 +32393,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
@@ -32356,13 +32429,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
@@ -32388,12 +32461,9 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A21" s="16">
+      <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
@@ -32447,16 +32517,16 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A23" s="20">
+    <row r="23" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A23" s="16">
         <v>10</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -32477,14 +32547,16 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+    <row r="24" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A24" s="20">
+        <v>11</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -32505,10 +32577,8 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="25" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A25" s="41"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -32536,25 +32606,15 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A26" s="24" t="s">
-        <v>1</v>
+      <c r="A26" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -32575,24 +32635,26 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A27" s="27">
+    <row r="27" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A27" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>22</v>
+      <c r="B27" s="25" t="s">
+        <v>18</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>23</v>
+      <c r="C27" s="50" t="s">
+        <v>19</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="28" t="s">
-        <v>34</v>
+      <c r="D27" s="51"/>
+      <c r="E27" s="25" t="s">
+        <v>20</v>
       </c>
-      <c r="F27" s="28" t="s">
-        <v>34</v>
+      <c r="F27" s="25" t="s">
+        <v>21</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -32613,24 +32675,24 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A28" s="30">
-        <v>2</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="34" t="s">
+    <row r="28" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="F28" s="34" t="s">
-        <v>1</v>
+      <c r="B28" s="28" t="s">
+        <v>105</v>
       </c>
-      <c r="G28" s="35"/>
+      <c r="C28" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="29"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -32651,14 +32713,16 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A29" s="30">
+        <v>2</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -59867,12 +59931,40 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -59900,8 +59992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50DC253-F783-544A-951E-EDDCB2E9A558}">
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="G28" sqref="A1:G28"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15" customHeight="1"/>
@@ -59933,123 +60025,123 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="45"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" s="36" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7" s="36" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7" s="36" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:7" s="36" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" s="36" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7" s="36" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" s="36" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" s="36" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:7" s="36" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="31"/>
@@ -60311,10 +60403,10 @@
       <c r="B26" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="25" t="s">
         <v>20</v>
       </c>
@@ -60332,10 +60424,10 @@
       <c r="B27" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="52"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="28" t="s">
         <v>34</v>
       </c>
@@ -60351,10 +60443,10 @@
       <c r="B28" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="34" t="s">
         <v>1</v>
       </c>
@@ -60410,11 +60502,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>